--- a/korea/korea_public_finance.xlsx
+++ b/korea/korea_public_finance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuvis\code\papers\korea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DC5EC1-0EC3-489D-B8C1-16776D5218B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5EA7B2-1A48-4295-BFC6-2BEDE83DC890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Total expenditures</t>
   </si>
@@ -122,29 +122,41 @@
     <t>National liabilities</t>
   </si>
   <si>
-    <t>Total revenues </t>
-  </si>
-  <si>
     <t>Total expenditures </t>
+  </si>
+  <si>
+    <t>General and special accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Total revenues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Total expenditures</t>
+  </si>
+  <si>
+    <t>Fiscal Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total revenues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Tax revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Non-Tax revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -180,19 +192,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA1F65-B66B-4D9C-9927-5593EEB6CED4}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +563,9 @@
       <c r="M1">
         <v>2024</v>
       </c>
+      <c r="N1">
+        <v>2025</v>
+      </c>
       <c r="O1" t="s">
         <v>15</v>
       </c>
@@ -593,8 +607,8 @@
       <c r="L2">
         <v>638.70000000000005</v>
       </c>
-      <c r="O2" s="2">
-        <f>(L2/B2)^(1/10)-1</f>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O17" si="0">(L2/B2)^(1/10)-1</f>
         <v>6.4298950836634949E-2</v>
       </c>
     </row>
@@ -635,8 +649,8 @@
       <c r="L3">
         <v>226</v>
       </c>
-      <c r="O3" s="2">
-        <f>(L3/B3)^(1/10)-1</f>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
         <v>9.3326174247358118E-2</v>
       </c>
     </row>
@@ -662,8 +676,8 @@
       <c r="I4">
         <v>25.5</v>
       </c>
-      <c r="O4" s="2" t="e">
-        <f>(L4/B4)^(1/10)-1</f>
+      <c r="O4" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -704,8 +718,8 @@
       <c r="L5">
         <v>96.3</v>
       </c>
-      <c r="O5" s="2">
-        <f>(L5/B5)^(1/10)-1</f>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
         <v>7.785785006123902E-2</v>
       </c>
     </row>
@@ -743,8 +757,8 @@
       <c r="L6">
         <v>75.8</v>
       </c>
-      <c r="O6" s="2">
-        <f>(L6/B6)^(1/10)-1</f>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
         <v>7.0369679116210726E-2</v>
       </c>
     </row>
@@ -785,8 +799,8 @@
       <c r="L7">
         <v>8.6</v>
       </c>
-      <c r="O7" s="2">
-        <f>(L7/B7)^(1/10)-1</f>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
         <v>6.4569604208857267E-2</v>
       </c>
     </row>
@@ -827,8 +841,8 @@
       <c r="L8">
         <v>12.2</v>
       </c>
-      <c r="O8" s="2">
-        <f>(L8/B8)^(1/10)-1</f>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
         <v>7.5352333617308753E-2</v>
       </c>
     </row>
@@ -869,8 +883,8 @@
       <c r="L9">
         <v>30.7</v>
       </c>
-      <c r="O9" s="2">
-        <f>(L9/B9)^(1/10)-1</f>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
         <v>6.7337674537899961E-2</v>
       </c>
     </row>
@@ -911,8 +925,8 @@
       <c r="L10">
         <v>26</v>
       </c>
-      <c r="O10" s="2">
-        <f>(L10/B10)^(1/10)-1</f>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
         <v>5.584371737326399E-2</v>
       </c>
     </row>
@@ -953,8 +967,8 @@
       <c r="L11">
         <v>25</v>
       </c>
-      <c r="O11" s="2">
-        <f>(L11/B11)^(1/10)-1</f>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
         <v>7.9356423481522498E-3</v>
       </c>
     </row>
@@ -995,8 +1009,8 @@
       <c r="L12">
         <v>24.4</v>
       </c>
-      <c r="O12" s="2">
-        <f>(L12/B12)^(1/10)-1</f>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
         <v>3.0317615636688666E-2</v>
       </c>
     </row>
@@ -1037,8 +1051,8 @@
       <c r="L13">
         <v>57</v>
       </c>
-      <c r="O13" s="2">
-        <f>(L13/B13)^(1/10)-1</f>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
         <v>5.6175506315376156E-2</v>
       </c>
     </row>
@@ -1079,8 +1093,8 @@
       <c r="L14">
         <v>6.4</v>
       </c>
-      <c r="O14" s="2">
-        <f>(L14/B14)^(1/10)-1</f>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
         <v>5.0779367632917571E-2</v>
       </c>
     </row>
@@ -1121,8 +1135,8 @@
       <c r="L15">
         <v>22.9</v>
       </c>
-      <c r="O15" s="2">
-        <f>(L15/B15)^(1/10)-1</f>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
         <v>4.6759106970041708E-2</v>
       </c>
     </row>
@@ -1163,8 +1177,8 @@
       <c r="L16">
         <v>112.2</v>
       </c>
-      <c r="O16" s="2">
-        <f>(L16/B16)^(1/10)-1</f>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
         <v>7.3702899246255171E-2</v>
       </c>
     </row>
@@ -1202,8 +1216,8 @@
       <c r="L17">
         <v>75.3</v>
       </c>
-      <c r="O17" s="2">
-        <f>(L17/B17)^(1/10)-1</f>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
         <v>8.5995694911434661E-2</v>
       </c>
     </row>
@@ -1211,40 +1225,40 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>3.1647086364718402</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>3.2024537945736</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>2.8091032682413299</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>2.9468817150862598</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>3.1596357401277699</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>2.9074037737713501</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>2.2439778601101201</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>-0.70941535939768097</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>4.1453239543092497</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>2.6</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>1.6</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>2.4</v>
       </c>
     </row>
@@ -1252,79 +1266,126 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5">
+      <c r="B21">
+        <v>464</v>
+      </c>
+      <c r="C21">
+        <v>533.20000000000005</v>
+      </c>
+      <c r="D21">
+        <v>591.5</v>
+      </c>
+      <c r="E21">
+        <v>626.9</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="4">
         <v>970.7</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="K21" s="6">
+        <v>1067.7</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1134.8</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1201.2</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1271.9000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3">
+      <c r="B22">
+        <v>32.5</v>
+      </c>
+      <c r="C22">
+        <v>35.9</v>
+      </c>
+      <c r="D22">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E22">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
         <v>46.9</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="K22" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="L22" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="M22" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>51.4</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>503</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>556.5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>591.9</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>627.4</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>651.79999999999995</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>699</v>
       </c>
       <c r="I23">
         <v>819.2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23">
         <v>939.1</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="K23" s="7">
+        <v>1033.4000000000001</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="3">
+      <c r="C24">
+        <v>30.1</v>
+      </c>
+      <c r="D24">
+        <v>34.9</v>
+      </c>
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="J24">
         <v>31.5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1358,10 +1419,10 @@
       <c r="J25">
         <v>632.4</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>664.5</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <f>(K25/D25)^(1/7)-1</f>
         <v>7.6709616304234673E-2</v>
       </c>
@@ -1397,10 +1458,10 @@
       <c r="J26">
         <v>164.7</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <v>166.7</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <f>(K26/D26)^(1/7)-1</f>
         <v>6.9283934084747312E-2</v>
       </c>
@@ -1436,10 +1497,10 @@
       <c r="J27">
         <v>467.7</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="7">
         <v>497.8</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <f>(K27/D27)^(1/7)-1</f>
         <v>7.9343748479735465E-2</v>
       </c>
@@ -1448,77 +1509,243 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="6">
+      <c r="B28" s="5">
+        <v>1666.3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1759.3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1856.2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1966.8</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2123.6999999999998</v>
+      </c>
+      <c r="G28">
         <v>2126.6</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28">
         <v>2299.4</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28">
         <v>2487.1</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28">
         <v>2866.1</v>
       </c>
-      <c r="O28" s="2"/>
+      <c r="K28">
+        <v>2836.3</v>
+      </c>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="6">
+      <c r="B29" s="5">
+        <v>1117.9000000000001</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1212.7</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1293.2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1433.1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1682.7</v>
+      </c>
+      <c r="G29">
         <v>1683.4</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29">
         <v>1743.7</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>1981.7</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29">
         <v>2195.3000000000002</v>
       </c>
-      <c r="O29" s="2"/>
+      <c r="K29">
+        <v>2326.1999999999998</v>
+      </c>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="1">
-        <v>385</v>
-      </c>
-      <c r="H30" s="1">
-        <v>473.1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>478.8</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="O30" s="2"/>
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="1">
-        <v>364.5</v>
-      </c>
-      <c r="H31" s="1">
-        <v>485.1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>549.9</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="O31" s="2"/>
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="C31">
+        <v>298.7</v>
+      </c>
+      <c r="E31">
+        <v>359.5</v>
+      </c>
+      <c r="F31">
+        <v>359.5</v>
+      </c>
+      <c r="H31">
+        <v>402</v>
+      </c>
+      <c r="I31">
+        <v>465.5</v>
+      </c>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>286.39999999999998</v>
+      </c>
+      <c r="C32">
+        <v>291.5</v>
+      </c>
+      <c r="E32">
+        <v>342.9</v>
+      </c>
+      <c r="F32">
+        <v>342.9</v>
+      </c>
+      <c r="H32">
+        <v>397.3</v>
+      </c>
+      <c r="I32">
+        <v>453.8</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>351.9</v>
+      </c>
+      <c r="C34">
+        <v>356.4</v>
+      </c>
+      <c r="D34">
+        <v>371.8</v>
+      </c>
+      <c r="E34">
+        <v>401.8</v>
+      </c>
+      <c r="G34">
+        <v>385</v>
+      </c>
+      <c r="H34">
+        <v>473.1</v>
+      </c>
+      <c r="I34">
+        <v>478.8</v>
+      </c>
+      <c r="K34">
+        <v>617.79999999999995</v>
+      </c>
+      <c r="L34" s="7">
+        <v>625.9</v>
+      </c>
+      <c r="M34" s="7">
+        <v>655.7</v>
+      </c>
+      <c r="N34" s="7">
+        <v>685.6</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>293.5</v>
+      </c>
+      <c r="J35">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="K35">
+        <v>573.9</v>
+      </c>
+      <c r="L35" s="7">
+        <v>400.5</v>
+      </c>
+      <c r="M35" s="7">
+        <v>418.8</v>
+      </c>
+      <c r="N35" s="7">
+        <v>439.2</v>
+      </c>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>108.5</v>
+      </c>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>337.7</v>
+      </c>
+      <c r="C37">
+        <v>347.9</v>
+      </c>
+      <c r="D37">
+        <v>372</v>
+      </c>
+      <c r="E37">
+        <v>384.9</v>
+      </c>
+      <c r="G37">
+        <v>364.5</v>
+      </c>
+      <c r="H37">
+        <v>485.1</v>
+      </c>
+      <c r="I37">
+        <v>549.9</v>
+      </c>
+      <c r="K37">
+        <v>682.4</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
     </row>

--- a/korea/korea_public_finance.xlsx
+++ b/korea/korea_public_finance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuvis\code\papers\korea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5EA7B2-1A48-4295-BFC6-2BEDE83DC890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E56A4-D610-4CB6-816C-DD1E4C4E488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
+    <workbookView xWindow="2052" yWindow="-19308" windowWidth="30936" windowHeight="18696" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Total expenditures</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t xml:space="preserve">            Non-Tax revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Government bonds, housing fund liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Civil servant pension fund liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Military pension fund liabilities</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -219,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,18 +524,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA1F65-B66B-4D9C-9927-5593EEB6CED4}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2013</v>
       </c>
@@ -570,7 +579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +621,7 @@
         <v>6.4298950836634949E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -654,7 +663,7 @@
         <v>9.3326174247358118E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -681,7 +690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -723,7 +732,7 @@
         <v>7.785785006123902E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -762,7 +771,7 @@
         <v>7.0369679116210726E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -804,7 +813,7 @@
         <v>6.4569604208857267E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -846,7 +855,7 @@
         <v>7.5352333617308753E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -888,7 +897,7 @@
         <v>6.7337674537899961E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -930,7 +939,7 @@
         <v>5.584371737326399E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -972,7 +981,7 @@
         <v>7.9356423481522498E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>3.0317615636688666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>5.6175506315376156E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>5.0779367632917571E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>4.6759106970041708E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>7.3702899246255171E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>8.5995694911434661E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>1271.9000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1377,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>7.6709616304234673E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>6.9283934084747312E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>7.9343748479735465E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1541,7 +1550,7 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1577,175 +1586,210 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="5">
+        <v>521.6</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>292.89999999999998</v>
       </c>
-      <c r="C31">
+      <c r="C34">
         <v>298.7</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>359.5</v>
       </c>
-      <c r="F31">
+      <c r="F34">
         <v>359.5</v>
       </c>
-      <c r="H31">
+      <c r="H34">
         <v>402</v>
       </c>
-      <c r="I31">
+      <c r="I34">
         <v>465.5</v>
       </c>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>286.39999999999998</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>291.5</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>342.9</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <v>342.9</v>
       </c>
-      <c r="H32">
+      <c r="H35">
         <v>397.3</v>
       </c>
-      <c r="I32">
+      <c r="I35">
         <v>453.8</v>
       </c>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>351.9</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>356.4</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>371.8</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>401.8</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>385</v>
       </c>
-      <c r="H34">
+      <c r="H37">
         <v>473.1</v>
       </c>
-      <c r="I34">
+      <c r="I37">
         <v>478.8</v>
       </c>
-      <c r="K34">
+      <c r="K37">
         <v>617.79999999999995</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L37" s="7">
         <v>625.9</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M37" s="7">
         <v>655.7</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N37" s="7">
         <v>685.6</v>
       </c>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="H35">
+      <c r="H38">
         <v>293.5</v>
       </c>
-      <c r="J35">
+      <c r="J38">
         <v>524.20000000000005</v>
       </c>
-      <c r="K35">
+      <c r="K38">
         <v>573.9</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L38" s="7">
         <v>400.5</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M38" s="7">
         <v>418.8</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N38" s="7">
         <v>439.2</v>
       </c>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="H36">
+      <c r="H39">
         <v>108.5</v>
       </c>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="B37">
+      <c r="B40">
         <v>337.7</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <v>347.9</v>
       </c>
-      <c r="D37">
+      <c r="D40">
         <v>372</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>384.9</v>
       </c>
-      <c r="G37">
+      <c r="G40">
         <v>364.5</v>
       </c>
-      <c r="H37">
+      <c r="H40">
         <v>485.1</v>
       </c>
-      <c r="I37">
+      <c r="I40">
         <v>549.9</v>
       </c>
-      <c r="K37">
+      <c r="K40">
         <v>682.4</v>
       </c>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>17</v>
       </c>
     </row>

--- a/korea/korea_public_finance.xlsx
+++ b/korea/korea_public_finance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuvis\code\papers\korea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E56A4-D610-4CB6-816C-DD1E4C4E488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9C0FBA-57EC-4C82-883E-83EE8E48B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2052" yWindow="-19308" windowWidth="30936" windowHeight="18696" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Total expenditures</t>
   </si>
@@ -86,9 +86,6 @@
     <t>CGAR</t>
   </si>
   <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
     <t>Primay Balance</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>National liabilities</t>
   </si>
   <si>
-    <t>Total expenditures </t>
-  </si>
-  <si>
     <t>General and special accounts</t>
   </si>
   <si>
@@ -137,29 +131,38 @@
     <t>Fiscal Account</t>
   </si>
   <si>
-    <t xml:space="preserve">      Total revenues </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Tax revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Non-Tax revenue</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Government bonds, housing fund liabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">        Civil servant pension fund liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Military pension fund liabilities</t>
+    <t xml:space="preserve">        Pension fund liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total expenditures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total revenues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                General Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Special Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Tax revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Non-Tax revenue</t>
+  </si>
+  <si>
+    <t>Interest Rate %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +182,14 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -210,9 +221,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -228,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,18 +536,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA1F65-B66B-4D9C-9927-5593EEB6CED4}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2013</v>
       </c>
@@ -579,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +633,7 @@
         <v>6.4298950836634949E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -663,7 +675,7 @@
         <v>9.3326174247358118E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -690,7 +702,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -732,7 +744,7 @@
         <v>7.785785006123902E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -771,7 +783,7 @@
         <v>7.0369679116210726E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -813,7 +825,7 @@
         <v>6.4569604208857267E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -855,7 +867,7 @@
         <v>7.5352333617308753E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -897,7 +909,7 @@
         <v>6.7337674537899961E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -939,7 +951,7 @@
         <v>5.584371737326399E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -981,7 +993,7 @@
         <v>7.9356423481522498E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>3.0317615636688666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>5.6175506315376156E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>5.0779367632917571E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>4.6759106970041708E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>7.3702899246255171E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1230,9 +1242,9 @@
         <v>8.5995694911434661E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>3.1647086364718402</v>
@@ -1271,9 +1283,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>464</v>
@@ -1287,7 +1299,9 @@
       <c r="E21">
         <v>626.9</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21">
+        <v>660.7</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1307,9 +1321,9 @@
         <v>1271.9000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>32.5</v>
@@ -1323,7 +1337,9 @@
       <c r="E22">
         <v>38.299999999999997</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22">
+        <v>38.6</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1343,9 +1359,9 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>503</v>
@@ -1377,9 +1393,9 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>30.1</v>
@@ -1390,6 +1406,9 @@
       <c r="E24">
         <v>35</v>
       </c>
+      <c r="F24">
+        <v>33.4</v>
+      </c>
       <c r="J24">
         <v>31.5</v>
       </c>
@@ -1397,9 +1416,9 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>21</v>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B25">
         <v>423.5</v>
@@ -1436,9 +1455,9 @@
         <v>7.6709616304234673E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>111.8</v>
@@ -1475,9 +1494,9 @@
         <v>6.9283934084747312E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>311.7</v>
@@ -1514,9 +1533,9 @@
         <v>7.9343748479735465E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>26</v>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>1666.3</v>
@@ -1531,16 +1550,16 @@
         <v>1966.8</v>
       </c>
       <c r="F28" s="5">
+        <v>2063.1999999999998</v>
+      </c>
+      <c r="G28" s="5">
         <v>2123.6999999999998</v>
-      </c>
-      <c r="G28">
-        <v>2126.6</v>
       </c>
       <c r="H28">
         <v>2299.4</v>
       </c>
-      <c r="I28">
-        <v>2487.1</v>
+      <c r="I28" s="5">
+        <v>2490.1999999999998</v>
       </c>
       <c r="J28">
         <v>2866.1</v>
@@ -1548,11 +1567,14 @@
       <c r="K28">
         <v>2836.3</v>
       </c>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="O28" s="1">
+        <f>(K28/B28)^(1/9)-1</f>
+        <v>6.0880709000561639E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="5">
         <v>1117.9000000000001</v>
@@ -1567,16 +1589,16 @@
         <v>1433.1</v>
       </c>
       <c r="F29" s="5">
+        <v>1555.8</v>
+      </c>
+      <c r="G29" s="5">
         <v>1682.7</v>
-      </c>
-      <c r="G29">
-        <v>1683.4</v>
       </c>
       <c r="H29">
         <v>1743.7</v>
       </c>
-      <c r="I29">
-        <v>1981.7</v>
+      <c r="I29" s="5">
+        <v>1985.3</v>
       </c>
       <c r="J29">
         <v>2195.3000000000002</v>
@@ -1584,216 +1606,506 @@
       <c r="K29">
         <v>2326.1999999999998</v>
       </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O29" s="1">
+        <f>(K29/B29)^(1/9)-1</f>
+        <v>8.4826923357644413E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30" s="5">
         <v>521.6</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <v>567.6</v>
+      </c>
+      <c r="D30">
+        <v>624.9</v>
+      </c>
+      <c r="E30">
+        <v>680.5</v>
+      </c>
+      <c r="F30">
+        <v>710</v>
+      </c>
+      <c r="G30">
+        <v>742.8</v>
+      </c>
+      <c r="O30" s="1">
+        <f>(G30/B30)^(1/5)-1</f>
+        <v>7.3264741888346085E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>596.29999999999995</v>
+      </c>
+      <c r="C31">
+        <v>643.6</v>
+      </c>
+      <c r="D31">
+        <v>659.9</v>
+      </c>
+      <c r="E31">
+        <v>752.6</v>
+      </c>
+      <c r="F31">
+        <v>845.8</v>
+      </c>
+      <c r="G31">
+        <v>939.9</v>
+      </c>
+      <c r="O31" s="1">
+        <f>(G31/B31)^(1/5)-1</f>
+        <v>9.5275487188531516E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="C33">
+        <v>298.7</v>
+      </c>
+      <c r="D33">
+        <v>328.1</v>
+      </c>
+      <c r="E33">
+        <v>345</v>
+      </c>
+      <c r="F33">
+        <v>359.5</v>
+      </c>
+      <c r="G33">
+        <v>385</v>
+      </c>
+      <c r="H33">
+        <v>402</v>
+      </c>
+      <c r="I33">
+        <v>465.5</v>
+      </c>
+      <c r="J33">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="K33">
+        <v>573.9</v>
+      </c>
+      <c r="O33" s="1">
+        <f>(K33/B33)^(1/9)-1</f>
+        <v>7.7599616404937288E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>239.2</v>
+      </c>
+      <c r="E34">
+        <v>281.7</v>
+      </c>
+      <c r="F34">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="G34">
+        <v>316.2</v>
+      </c>
+      <c r="H34">
+        <v>332.2</v>
+      </c>
+      <c r="I34">
+        <v>392.4</v>
+      </c>
+      <c r="J34">
+        <v>438.4</v>
+      </c>
+      <c r="K34">
+        <v>493.9</v>
+      </c>
+      <c r="O34" s="1">
+        <f>(K34/C34)^(1/8)-1</f>
+        <v>9.4862878905945802E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="C35">
+        <v>199.3</v>
+      </c>
+      <c r="F35">
+        <v>258.5</v>
+      </c>
+      <c r="G35">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="H35">
+        <v>286</v>
+      </c>
+      <c r="I35">
+        <v>276.3</v>
+      </c>
+      <c r="O35" s="1">
+        <f>(I35/C35)^(1/6)-1</f>
+        <v>5.5955454108671532E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="C36">
+        <v>39.9</v>
+      </c>
+      <c r="F36">
+        <v>34.4</v>
+      </c>
+      <c r="G36">
+        <v>30.3</v>
+      </c>
+      <c r="H36">
+        <v>46.2</v>
+      </c>
+      <c r="I36">
+        <v>116.1</v>
+      </c>
+      <c r="O36" s="1">
+        <f>(I36/C36)^(1/6)-1</f>
+        <v>0.19484036912056246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>59.5</v>
+      </c>
+      <c r="E37">
+        <v>63.3</v>
+      </c>
+      <c r="F37">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G37">
+        <v>68.8</v>
+      </c>
+      <c r="H37">
+        <v>69.8</v>
+      </c>
+      <c r="I37">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J37">
+        <v>85.8</v>
+      </c>
+      <c r="K37">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="O37" s="1">
+        <f>(K37/C37)^(1/8)-1</f>
+        <v>3.786160017608009E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>6.2</v>
+      </c>
+      <c r="F38">
+        <v>6.9</v>
+      </c>
+      <c r="G38">
+        <v>7.7</v>
+      </c>
+      <c r="H38">
+        <v>7.4</v>
+      </c>
+      <c r="I38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O38" s="1">
+        <f>(I38/C38)^(1/6)-1</f>
+        <v>6.991319393366302E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>53.3</v>
+      </c>
+      <c r="F39">
+        <v>59.7</v>
+      </c>
+      <c r="G39">
+        <v>61.1</v>
+      </c>
+      <c r="H39">
+        <v>62.3</v>
+      </c>
+      <c r="I39">
+        <v>63.9</v>
+      </c>
+      <c r="O39" s="1">
+        <f>(I39/C39)^(1/6)-1</f>
+        <v>3.0692086289675125E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>292.89999999999998</v>
-      </c>
-      <c r="C34">
-        <v>298.7</v>
-      </c>
-      <c r="E34">
-        <v>359.5</v>
-      </c>
-      <c r="F34">
-        <v>359.5</v>
-      </c>
-      <c r="H34">
-        <v>402</v>
-      </c>
-      <c r="I34">
-        <v>465.5</v>
-      </c>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
+      <c r="B40">
         <v>286.39999999999998</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>291.5</v>
       </c>
-      <c r="E35">
+      <c r="D40">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="E40">
         <v>342.9</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>342.9</v>
-      </c>
-      <c r="H35">
-        <v>397.3</v>
-      </c>
-      <c r="I35">
-        <v>453.8</v>
-      </c>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>351.9</v>
-      </c>
-      <c r="C37">
-        <v>356.4</v>
-      </c>
-      <c r="D37">
-        <v>371.8</v>
-      </c>
-      <c r="E37">
-        <v>401.8</v>
-      </c>
-      <c r="G37">
-        <v>385</v>
-      </c>
-      <c r="H37">
-        <v>473.1</v>
-      </c>
-      <c r="I37">
-        <v>478.8</v>
-      </c>
-      <c r="K37">
-        <v>617.79999999999995</v>
-      </c>
-      <c r="L37" s="7">
-        <v>625.9</v>
-      </c>
-      <c r="M37" s="7">
-        <v>655.7</v>
-      </c>
-      <c r="N37" s="7">
-        <v>685.6</v>
-      </c>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38">
-        <v>293.5</v>
-      </c>
-      <c r="J38">
-        <v>524.20000000000005</v>
-      </c>
-      <c r="K38">
-        <v>573.9</v>
-      </c>
-      <c r="L38" s="7">
-        <v>400.5</v>
-      </c>
-      <c r="M38" s="7">
-        <v>418.8</v>
-      </c>
-      <c r="N38" s="7">
-        <v>439.2</v>
-      </c>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39">
-        <v>108.5</v>
-      </c>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40">
-        <v>337.7</v>
-      </c>
-      <c r="C40">
-        <v>347.9</v>
-      </c>
-      <c r="D40">
-        <v>372</v>
-      </c>
-      <c r="E40">
-        <v>384.9</v>
       </c>
       <c r="G40">
         <v>364.5</v>
       </c>
       <c r="H40">
+        <v>397.3</v>
+      </c>
+      <c r="I40">
+        <v>453.8</v>
+      </c>
+      <c r="J40">
+        <v>496.9</v>
+      </c>
+      <c r="K40">
+        <v>559.70000000000005</v>
+      </c>
+      <c r="O40" s="1">
+        <f>(K40/B40)^(1/9)-1</f>
+        <v>7.7286868098120909E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>236.4</v>
+      </c>
+      <c r="F41">
+        <v>280.5</v>
+      </c>
+      <c r="G41">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="H41">
+        <v>330.9</v>
+      </c>
+      <c r="I41">
+        <v>385.2</v>
+      </c>
+      <c r="J41">
+        <v>417.7</v>
+      </c>
+      <c r="K41">
+        <v>485</v>
+      </c>
+      <c r="O41" s="1">
+        <f>(I41/C41)^(1/8)-1</f>
+        <v>6.2930455435365129E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>55.2</v>
+      </c>
+      <c r="F42">
+        <v>62.4</v>
+      </c>
+      <c r="G42">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="H42">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="I42">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J42">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="K42">
+        <v>74.7</v>
+      </c>
+      <c r="O42" s="1">
+        <f>(I42/C42)^(1/8)-1</f>
+        <v>2.7538563099537061E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>351.9</v>
+      </c>
+      <c r="C44">
+        <v>356.4</v>
+      </c>
+      <c r="D44">
+        <v>371.8</v>
+      </c>
+      <c r="E44">
+        <v>401.8</v>
+      </c>
+      <c r="F44">
+        <v>430.6</v>
+      </c>
+      <c r="H44">
+        <v>473.1</v>
+      </c>
+      <c r="I44">
+        <v>478.8</v>
+      </c>
+      <c r="J44">
+        <v>570.5</v>
+      </c>
+      <c r="K44">
+        <v>617.79999999999995</v>
+      </c>
+      <c r="L44" s="7">
+        <v>625.9</v>
+      </c>
+      <c r="M44" s="7">
+        <v>655.7</v>
+      </c>
+      <c r="N44" s="7">
+        <v>685.6</v>
+      </c>
+      <c r="O44" s="1">
+        <f>(K44/B44)^(1/9)-1</f>
+        <v>6.4532040512186528E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45">
+        <v>337.7</v>
+      </c>
+      <c r="C45">
+        <v>347.9</v>
+      </c>
+      <c r="D45">
+        <v>372</v>
+      </c>
+      <c r="E45">
+        <v>384.9</v>
+      </c>
+      <c r="F45">
+        <v>406.6</v>
+      </c>
+      <c r="H45">
         <v>485.1</v>
       </c>
-      <c r="I40">
+      <c r="I45">
         <v>549.9</v>
       </c>
-      <c r="K40">
+      <c r="J45">
+        <v>600.9</v>
+      </c>
+      <c r="K45">
         <v>682.4</v>
       </c>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="O45" s="1">
+        <f>(K45/B45)^(1/9)-1</f>
+        <v>8.1297822992278057E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>2.5</v>
+      </c>
+      <c r="C46">
+        <v>2.25</v>
+      </c>
+      <c r="D46">
+        <v>1.75</v>
+      </c>
+      <c r="E46">
+        <v>1.25</v>
+      </c>
+      <c r="F46">
+        <v>1.25</v>
+      </c>
+      <c r="G46">
+        <v>1.5</v>
+      </c>
+      <c r="H46">
+        <v>1.5</v>
+      </c>
+      <c r="I46">
+        <v>0.75</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M46" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/korea/korea_public_finance.xlsx
+++ b/korea/korea_public_finance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuvis\code\papers\korea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9C0FBA-57EC-4C82-883E-83EE8E48B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D45ACEE-0D19-4D72-8B72-469F7BC85045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
+    <workbookView xWindow="2052" yWindow="-19308" windowWidth="30936" windowHeight="18696" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Total expenditures</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Interest Rate %</t>
+  </si>
+  <si>
+    <t>GDP</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -222,9 +225,12 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -240,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,18 +542,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA1F65-B66B-4D9C-9927-5593EEB6CED4}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A38" activeCellId="1" sqref="A35:XFD35 A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2013</v>
       </c>
@@ -587,11 +598,11 @@
       <c r="N1">
         <v>2025</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -633,7 +644,7 @@
         <v>6.4298950836634949E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -675,7 +686,7 @@
         <v>9.3326174247358118E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -702,7 +713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -744,7 +755,7 @@
         <v>7.785785006123902E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -783,7 +794,7 @@
         <v>7.0369679116210726E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -825,7 +836,7 @@
         <v>6.4569604208857267E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -867,7 +878,7 @@
         <v>7.5352333617308753E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -909,7 +920,7 @@
         <v>6.7337674537899961E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -951,7 +962,7 @@
         <v>5.584371737326399E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1004,7 @@
         <v>7.9356423481522498E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1046,7 @@
         <v>3.0317615636688666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1088,7 @@
         <v>5.6175506315376156E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1130,7 @@
         <v>5.0779367632917571E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>4.6759106970041708E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>7.3702899246255171E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1253,51 @@
         <v>8.5995694911434661E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19">
+        <v>2014</v>
+      </c>
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19">
+        <v>2016</v>
+      </c>
+      <c r="F19">
+        <v>2017</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19">
+        <v>2019</v>
+      </c>
+      <c r="I19">
+        <v>2020</v>
+      </c>
+      <c r="J19">
+        <v>2021</v>
+      </c>
+      <c r="K19">
+        <v>2022</v>
+      </c>
+      <c r="L19">
+        <v>2023</v>
+      </c>
+      <c r="M19">
+        <v>2024</v>
+      </c>
+      <c r="N19">
+        <v>2025</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1282,8 +1337,12 @@
       <c r="M20" s="3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="2">
+        <f>AVERAGE(B20:M20)</f>
+        <v>2.5391727819411538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1320,8 +1379,12 @@
       <c r="N21" s="6">
         <v>1271.9000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <f>(K21/C21)^(1/8)-1</f>
+        <v>9.0673817687088043E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1358,8 +1421,12 @@
       <c r="N22" s="7">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <f>(K22/C22)^(1/8)-1</f>
+        <v>4.1234149984754609E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1392,8 +1459,12 @@
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <f>(K23/C23)^(1/8)-1</f>
+        <v>9.4176943338847519E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1415,8 +1486,12 @@
       <c r="K24" s="7">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="1">
+        <f>(K24/C24)^(1/8)-1</f>
+        <v>1.6090641284041807E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
@@ -1455,7 +1530,7 @@
         <v>7.6709616304234673E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1569,7 @@
         <v>6.9283934084747312E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +1608,7 @@
         <v>7.9343748479735465E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -1572,7 +1647,7 @@
         <v>6.0880709000561639E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -1611,7 +1686,7 @@
         <v>8.4826923357644413E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1638,7 +1713,7 @@
         <v>7.3264741888346085E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1665,13 +1740,13 @@
         <v>9.5275487188531516E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1785,7 @@
         <v>7.7599616404937288E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +1818,7 @@
         <v>9.4862878905945802E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1767,7 +1842,7 @@
         <v>5.5955454108671532E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1791,7 +1866,7 @@
         <v>0.19484036912056246</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1899,7 @@
         <v>3.786160017608009E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1848,7 +1923,7 @@
         <v>6.991319393366302E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +1947,7 @@
         <v>3.0692086289675125E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1986,7 @@
         <v>7.7286868098120909E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1941,7 +2016,7 @@
         <v>6.2930455435365129E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1971,13 +2046,13 @@
         <v>2.7538563099537061E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2022,7 +2097,7 @@
         <v>6.4532040512186528E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2058,7 +2133,7 @@
         <v>8.1297822992278057E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2099,9 +2174,84 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <f>(B44-B45)/(B21/B22*100)</f>
+        <v>9.9461206896551638E-3</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:K48" si="1">C44-C45</f>
+        <v>8.5</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-0.19999999999998863</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>16.900000000000034</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>-71.099999999999966</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>-30.399999999999977</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>-64.600000000000023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <f>(B21/B22*100)</f>
+        <v>1427.6923076923078</v>
+      </c>
+      <c r="C49">
+        <f>(C21/C22*100)</f>
+        <v>1485.2367688022287</v>
+      </c>
+      <c r="D49">
+        <f>(D21/D22*100)</f>
+        <v>1564.8148148148148</v>
+      </c>
+      <c r="E49">
+        <f>(E21/E22*100)</f>
+        <v>1636.8146214099215</v>
+      </c>
+      <c r="F49">
+        <f>(F21/F22*100)</f>
+        <v>1711.6580310880831</v>
+      </c>
+      <c r="J49">
+        <f>(J21/J22*100)</f>
+        <v>2069.7228144989344</v>
+      </c>
+      <c r="K49">
+        <f>(K21/K22*100)</f>
+        <v>2152.6209677419356</v>
       </c>
     </row>
   </sheetData>

--- a/korea/korea_public_finance.xlsx
+++ b/korea/korea_public_finance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuvis\code\papers\korea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D45ACEE-0D19-4D72-8B72-469F7BC85045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5FDECD-C46B-47E8-B76C-83A7AC5B7D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2052" yWindow="-19308" windowWidth="30936" windowHeight="18696" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8631033F-7449-41D4-BAD9-35752169B9F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Total expenditures</t>
   </si>
@@ -86,9 +86,6 @@
     <t>CGAR</t>
   </si>
   <si>
-    <t>Primay Balance</t>
-  </si>
-  <si>
     <t>GDP growth %</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
     <t xml:space="preserve">       Net debt of local government</t>
   </si>
   <si>
-    <t>Natioanl Debt(trillion won)</t>
-  </si>
-  <si>
-    <t>Natioanl Debt(% to GDP)</t>
-  </si>
-  <si>
     <t>National assets</t>
   </si>
   <si>
@@ -158,7 +149,40 @@
     <t>Interest Rate %</t>
   </si>
   <si>
-    <t>GDP</t>
+    <t>Fiscal Account Balance (% to GDP)</t>
+  </si>
+  <si>
+    <t>Estimated interest payment (% to GDP)</t>
+  </si>
+  <si>
+    <t>Estimated Primary Balance (% to GDP)</t>
+  </si>
+  <si>
+    <t>Estimated Nominal GDP</t>
+  </si>
+  <si>
+    <t>Fiscal Balance</t>
+  </si>
+  <si>
+    <t>Target GDP growth %</t>
+  </si>
+  <si>
+    <t>Estimated Interest Rate %</t>
+  </si>
+  <si>
+    <t>Required Primary Balance(% to GDP)</t>
+  </si>
+  <si>
+    <t>CAGR</t>
+  </si>
+  <si>
+    <t>National Debt(trillion won)</t>
+  </si>
+  <si>
+    <t>National Debt(% to GDP)</t>
+  </si>
+  <si>
+    <t>Target National Debt(% to GDP)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +254,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -542,23 +566,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA1F65-B66B-4D9C-9927-5593EEB6CED4}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A38" activeCellId="1" sqref="A35:XFD35 A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2013</v>
       </c>
@@ -599,10 +623,10 @@
         <v>2025</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +668,7 @@
         <v>6.4298950836634949E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +710,7 @@
         <v>9.3326174247358118E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -713,7 +737,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -755,7 +779,7 @@
         <v>7.785785006123902E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -794,7 +818,7 @@
         <v>7.0369679116210726E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -836,7 +860,7 @@
         <v>6.4569604208857267E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -878,7 +902,7 @@
         <v>7.5352333617308753E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -920,7 +944,7 @@
         <v>6.7337674537899961E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -962,7 +986,7 @@
         <v>5.584371737326399E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>7.9356423481522498E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>3.0317615636688666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>5.6175506315376156E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1154,7 @@
         <v>5.0779367632917571E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1196,7 @@
         <v>4.6759106970041708E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1238,7 @@
         <v>7.3702899246255171E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1277,7 @@
         <v>8.5995694911434661E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2013</v>
       </c>
@@ -1297,9 +1321,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>3.1647086364718402</v>
@@ -1342,9 +1366,9 @@
         <v>2.5391727819411538</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>464</v>
@@ -1384,9 +1408,9 @@
         <v>9.0673817687088043E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>32.5</v>
@@ -1426,9 +1450,9 @@
         <v>4.1234149984754609E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>503</v>
@@ -1464,9 +1488,9 @@
         <v>9.4176943338847519E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>30.1</v>
@@ -1491,9 +1515,9 @@
         <v>1.6090641284041807E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>423.5</v>
@@ -1530,9 +1554,9 @@
         <v>7.6709616304234673E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>111.8</v>
@@ -1569,9 +1593,9 @@
         <v>6.9283934084747312E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>311.7</v>
@@ -1608,9 +1632,9 @@
         <v>7.9343748479735465E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5">
         <v>1666.3</v>
@@ -1647,9 +1671,9 @@
         <v>6.0880709000561639E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5">
         <v>1117.9000000000001</v>
@@ -1686,9 +1710,9 @@
         <v>8.4826923357644413E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5">
         <v>521.6</v>
@@ -1713,9 +1737,9 @@
         <v>7.3264741888346085E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>596.29999999999995</v>
@@ -1740,15 +1764,15 @@
         <v>9.5275487188531516E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>292.89999999999998</v>
@@ -1785,9 +1809,9 @@
         <v>7.7599616404937288E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>239.2</v>
@@ -1818,9 +1842,9 @@
         <v>9.4862878905945802E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>199.3</v>
@@ -1842,9 +1866,9 @@
         <v>5.5955454108671532E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>39.9</v>
@@ -1866,9 +1890,9 @@
         <v>0.19484036912056246</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>59.5</v>
@@ -1899,9 +1923,9 @@
         <v>3.786160017608009E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>6.2</v>
@@ -1923,9 +1947,9 @@
         <v>6.991319393366302E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>53.3</v>
@@ -1947,9 +1971,9 @@
         <v>3.0692086289675125E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>286.39999999999998</v>
@@ -1986,9 +2010,9 @@
         <v>7.7286868098120909E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>236.4</v>
@@ -2016,9 +2040,9 @@
         <v>6.2930455435365129E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <v>55.2</v>
@@ -2046,15 +2070,15 @@
         <v>2.7538563099537061E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>351.9</v>
@@ -2096,10 +2120,14 @@
         <f>(K44/B44)^(1/9)-1</f>
         <v>6.4532040512186528E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P44" s="1">
+        <f>(H44/B44)^(1/6)-1</f>
+        <v>5.056343294206056E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>337.7</v>
@@ -2132,10 +2160,14 @@
         <f>(K45/B45)^(1/9)-1</f>
         <v>8.1297822992278057E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P45" s="1">
+        <f>(H45/B45)^(1/6)-1</f>
+        <v>6.2225449523279242E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46">
         <v>2.5</v>
@@ -2174,84 +2206,356 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B48">
-        <f>(B44-B45)/(B21/B22*100)</f>
-        <v>9.9461206896551638E-3</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:K48" si="1">C44-C45</f>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2013</v>
+      </c>
+      <c r="C49">
+        <v>2014</v>
+      </c>
+      <c r="D49">
+        <v>2015</v>
+      </c>
+      <c r="E49">
+        <v>2016</v>
+      </c>
+      <c r="F49">
+        <v>2017</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+      <c r="H49">
+        <v>2019</v>
+      </c>
+      <c r="I49">
+        <v>2020</v>
+      </c>
+      <c r="J49">
+        <v>2021</v>
+      </c>
+      <c r="K49">
+        <v>2022</v>
+      </c>
+      <c r="L49">
+        <v>2023</v>
+      </c>
+      <c r="M49">
+        <v>2024</v>
+      </c>
+      <c r="N49">
+        <v>2025</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" ref="B50:K50" si="1">B44-B45</f>
+        <v>14.199999999999989</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="D48">
+      <c r="D50" s="2">
         <f t="shared" si="1"/>
         <v>-0.19999999999998863</v>
       </c>
-      <c r="E48">
+      <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>16.900000000000034</v>
       </c>
-      <c r="F48">
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="G50" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="H50" s="2">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="I48">
+      <c r="I50" s="2">
         <f t="shared" si="1"/>
         <v>-71.099999999999966</v>
       </c>
-      <c r="J48">
+      <c r="J50" s="2">
         <f t="shared" si="1"/>
         <v>-30.399999999999977</v>
       </c>
-      <c r="K48">
+      <c r="K50" s="2">
         <f t="shared" si="1"/>
         <v>-64.600000000000023</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>40</v>
       </c>
-      <c r="B49">
+      <c r="B51" s="2">
         <f>(B21/B22*100)</f>
         <v>1427.6923076923078</v>
       </c>
-      <c r="C49">
+      <c r="C51" s="2">
         <f>(C21/C22*100)</f>
         <v>1485.2367688022287</v>
       </c>
-      <c r="D49">
+      <c r="D51" s="2">
         <f>(D21/D22*100)</f>
         <v>1564.8148148148148</v>
       </c>
-      <c r="E49">
+      <c r="E51" s="2">
         <f>(E21/E22*100)</f>
         <v>1636.8146214099215</v>
       </c>
-      <c r="F49">
+      <c r="F51" s="2">
         <f>(F21/F22*100)</f>
         <v>1711.6580310880831</v>
       </c>
-      <c r="J49">
+      <c r="G51" s="2">
+        <f>G23/0.366</f>
+        <v>1780.8743169398906</v>
+      </c>
+      <c r="H51" s="2">
+        <f>H23/0.365</f>
+        <v>1915.0684931506851</v>
+      </c>
+      <c r="I51" s="2">
+        <f>I23/0.426</f>
+        <v>1923.004694835681</v>
+      </c>
+      <c r="J51" s="2">
         <f>(J21/J22*100)</f>
         <v>2069.7228144989344</v>
       </c>
-      <c r="K49">
+      <c r="K51" s="2">
         <f>(K21/K22*100)</f>
         <v>2152.6209677419356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1">
+        <f>B50/B51</f>
+        <v>9.9461206896551638E-3</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" ref="C52:I52" si="2">C50/C51</f>
+        <v>5.7229932483120775E-3</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.278106508875667E-4</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0324932206093498E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4021492356591492E-2</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7519484504449217E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.2660944206008578E-3</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.6973388671874975E-2</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" ref="J52:K52" si="3">J50/J51</f>
+        <v>-1.4687957144328819E-2</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.0009927882363969E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1">
+        <f>B21*B46/100/B51</f>
+        <v>8.1249999999999985E-3</v>
+      </c>
+      <c r="C53" s="1">
+        <f>C21*C46/100/C51</f>
+        <v>8.0774999999999979E-3</v>
+      </c>
+      <c r="D53" s="1">
+        <f>D21*D46/100/D51</f>
+        <v>6.6150000000000002E-3</v>
+      </c>
+      <c r="E53" s="1">
+        <f>E21*E46/100/E51</f>
+        <v>4.7875000000000001E-3</v>
+      </c>
+      <c r="F53" s="1">
+        <f>F21*F46/100/F51</f>
+        <v>4.8249999999999986E-3</v>
+      </c>
+      <c r="J53" s="1">
+        <f>J21*J46/100/J51</f>
+        <v>2.3449999999999994E-3</v>
+      </c>
+      <c r="K53" s="1">
+        <f>K21*K46/100/K51</f>
+        <v>1.4880000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1">
+        <f>B52+B53</f>
+        <v>1.8071120689655162E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <f>C52+C53</f>
+        <v>1.3800493248312076E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <f>D52+D53</f>
+        <v>6.4871893491124334E-3</v>
+      </c>
+      <c r="E54" s="1">
+        <f>E52+E53</f>
+        <v>1.5112432206093498E-2</v>
+      </c>
+      <c r="F54" s="1">
+        <f>F52+F53</f>
+        <v>1.8846492356591492E-2</v>
+      </c>
+      <c r="J54" s="1">
+        <f>J52+J53</f>
+        <v>-1.234295714432882E-2</v>
+      </c>
+      <c r="K54" s="1">
+        <f>K52+K53</f>
+        <v>-1.5129927882363966E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2022</v>
+      </c>
+      <c r="C57">
+        <v>2023</v>
+      </c>
+      <c r="D57">
+        <v>2024</v>
+      </c>
+      <c r="E57">
+        <v>2025</v>
+      </c>
+      <c r="F57">
+        <v>2026</v>
+      </c>
+      <c r="G57">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58">
+        <v>49.6</v>
+      </c>
+      <c r="C58">
+        <v>49.8</v>
+      </c>
+      <c r="D58">
+        <v>50.6</v>
+      </c>
+      <c r="E58">
+        <v>51.4</v>
+      </c>
+      <c r="F58">
+        <v>51.4</v>
+      </c>
+      <c r="G58">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>1.6</v>
+      </c>
+      <c r="D59">
+        <v>2.4</v>
+      </c>
+      <c r="E59">
+        <v>2.54</v>
+      </c>
+      <c r="F59">
+        <v>2.54</v>
+      </c>
+      <c r="G59">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>3.5</v>
+      </c>
+      <c r="D60">
+        <v>3.5</v>
+      </c>
+      <c r="E60">
+        <v>3.5</v>
+      </c>
+      <c r="F60">
+        <v>3.5</v>
+      </c>
+      <c r="G60">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="1">
+        <f>((1+C60/100)/(1+C59/100)*B58-C58)/100</f>
+        <v>7.2755905511811391E-3</v>
+      </c>
+      <c r="D61" s="1">
+        <f>((1+D60/100)/(1+D59/100)*C58-D58)/100</f>
+        <v>-2.6503906250000143E-3</v>
+      </c>
+      <c r="E61" s="1">
+        <f>((1+E60/100)/(1+E59/100)*D58-E58)/100</f>
+        <v>-3.2627267407841741E-3</v>
+      </c>
+      <c r="F61" s="1">
+        <f>((1+F60/100)/(1+F59/100)*E58-F58)/100</f>
+        <v>4.8121708601519941E-3</v>
+      </c>
+      <c r="G61" s="1">
+        <f>((1+G60/100)/(1+G59/100)*F58-G58)/100</f>
+        <v>4.8121708601519941E-3</v>
       </c>
     </row>
   </sheetData>
